--- a/carbon_price_qr/static/item.xlsx
+++ b/carbon_price_qr/static/item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13yun\Documents\carbon-price-tag\carbon_price_qr\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{356DF603-7074-A542-8834-CB517C537553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC0B09-DABE-4B1B-BBCA-DCD39B7B83D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="2200" windowWidth="19100" windowHeight="11540" xr2:uid="{52EEC864-E174-5343-95BC-3951ED66EA00}"/>
+    <workbookView xWindow="1935" yWindow="4140" windowWidth="21600" windowHeight="11385" xr2:uid="{52EEC864-E174-5343-95BC-3951ED66EA00}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -69,13 +69,13 @@
     <t>viscose</t>
   </si>
   <si>
-    <t xml:space="preserve">cotton </t>
-  </si>
-  <si>
     <t>wool</t>
   </si>
   <si>
     <t>hemp</t>
+  </si>
+  <si>
+    <t>cotton</t>
   </si>
 </sst>
 </file>
@@ -442,13 +442,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E376FCC3-9576-5A40-B4D1-B70AA40D8600}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -470,7 +470,7 @@
         <v>122.35641000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -481,7 +481,7 @@
         <v>48.942564000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -492,7 +492,7 @@
         <v>73.413846000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -503,7 +503,7 @@
         <v>106.04222200000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -514,7 +514,7 @@
         <v>85.980180000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -525,7 +525,7 @@
         <v>34.392071999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -536,7 +536,7 @@
         <v>51.588108000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -547,7 +547,7 @@
         <v>74.516156000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -558,7 +558,7 @@
         <v>62.831670000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -569,7 +569,7 @@
         <v>25.132667999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -580,7 +580,7 @@
         <v>37.699002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -591,7 +591,7 @@
         <v>54.454114000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -602,7 +602,7 @@
         <v>49.603949999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -613,7 +613,7 @@
         <v>19.841579999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -624,7 +624,7 @@
         <v>29.762370000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -635,133 +635,133 @@
         <v>42.990090000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>26.455439999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1">
         <v>10.582175999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
         <v>15.873263999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <v>22.928048</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
         <v>23.148510000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
         <v>9.259404</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1">
         <v>13.889106</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
         <v>20.062042000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1">
         <v>9.9207900000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1">
         <v>3.9683159999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
         <v>5.9524739999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1">
         <v>8.5980179999999997</v>
